--- a/HACKberry-hardware/HACKberry_BOM_v1_for_print.xlsx
+++ b/HACKberry-hardware/HACKberry_BOM_v1_for_print.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$J$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$K$53</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="73">
   <si>
     <t>Unit</t>
     <phoneticPr fontId="3"/>
@@ -216,9 +216,6 @@
     <t>HBarmMountBaseCover03.stl</t>
   </si>
   <si>
-    <t>HbArmMountU01.stl</t>
-  </si>
-  <si>
     <t>HBlockPlateHolder02.stl</t>
   </si>
   <si>
@@ -246,6 +243,34 @@
   </si>
   <si>
     <t>Print6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Print7</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HBarmMountBase03.stl</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HBarmMount02.stl</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HBabductionLever02.stl</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3D print part</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3D print part</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HBejectorLever02.stl</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -294,7 +319,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -680,36 +705,116 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -767,6 +872,50 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1049,10 +1198,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1062,7 +1211,7 @@
     <col min="3" max="3" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1072,1046 +1221,1156 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="J1" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="K1" s="13" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="20">
-        <v>1</v>
-      </c>
-      <c r="E2" s="21">
-        <v>1</v>
-      </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="23"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="4"/>
-      <c r="B3" s="3" t="s">
+      <c r="D2" s="14">
+        <v>1</v>
+      </c>
+      <c r="E2" s="15">
+        <v>1</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="17"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" s="29"/>
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="24">
-        <v>1</v>
-      </c>
-      <c r="E3" s="11">
-        <v>1</v>
-      </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="12"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3" t="s">
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="18">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" s="29"/>
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="24">
-        <v>1</v>
-      </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="9">
-        <v>1</v>
-      </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="12"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="4"/>
-      <c r="B5" s="3" t="s">
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="18">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" s="29"/>
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="24">
-        <v>1</v>
-      </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9">
-        <v>1</v>
-      </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="12"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="4"/>
-      <c r="B6" s="3" t="s">
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="18">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" s="29"/>
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="24">
-        <v>1</v>
-      </c>
-      <c r="E6" s="11">
-        <v>1</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="12"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3" t="s">
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="18">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" s="29"/>
+      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="24">
-        <v>1</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="9">
-        <v>1</v>
-      </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="12"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="4"/>
-      <c r="B8" s="3" t="s">
+      <c r="C7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="18">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" s="29"/>
+      <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="24">
-        <v>1</v>
-      </c>
-      <c r="E8" s="11">
-        <v>1</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="12"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3" t="s">
+      <c r="C8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="18">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" s="29"/>
+      <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="24">
-        <v>1</v>
-      </c>
-      <c r="E9" s="11">
-        <v>1</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="12"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="4"/>
-      <c r="B10" s="3" t="s">
+      <c r="C9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="18">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" s="29"/>
+      <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="24">
-        <v>1</v>
-      </c>
-      <c r="E10" s="11">
-        <v>1</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="12"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3" t="s">
+      <c r="C10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="18">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" s="29"/>
+      <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="24">
-        <v>1</v>
-      </c>
-      <c r="E11" s="11">
-        <v>1</v>
-      </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="12"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3" t="s">
+      <c r="C11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="18">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12" s="29"/>
+      <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="24">
-        <v>1</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="9">
-        <v>1</v>
-      </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="12"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3" t="s">
+      <c r="C12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="18">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13" s="29"/>
+      <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="24">
-        <v>1</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9">
-        <v>1</v>
-      </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="12"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3" t="s">
+      <c r="C13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="18">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14" s="29"/>
+      <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="24">
-        <v>1</v>
-      </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9">
-        <v>1</v>
-      </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="12"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3" t="s">
+      <c r="C14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="18">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A15" s="29"/>
+      <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="24">
-        <v>1</v>
-      </c>
-      <c r="E15" s="11">
-        <v>1</v>
-      </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="12"/>
-    </row>
-    <row r="16" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="3" t="s">
+      <c r="C15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="18">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="30"/>
+      <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="25">
-        <v>1</v>
-      </c>
-      <c r="E16" s="26">
-        <v>1</v>
-      </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="28"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="2" t="s">
+      <c r="C16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="19">
+        <v>1</v>
+      </c>
+      <c r="E16" s="20">
+        <v>1</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="22"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A17" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="20">
-        <v>1</v>
-      </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="4"/>
-      <c r="B18" s="3" t="s">
+      <c r="C17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="14">
+        <v>1</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A18" s="29"/>
+      <c r="B18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="24">
-        <v>1</v>
-      </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="4"/>
-      <c r="B19" s="3" t="s">
+      <c r="C18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A19" s="29"/>
+      <c r="B19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="24">
-        <v>1</v>
-      </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="4"/>
-      <c r="B20" s="3" t="s">
+      <c r="C19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="18">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A20" s="29"/>
+      <c r="B20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="24">
-        <v>1</v>
-      </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="4"/>
-      <c r="B21" s="3" t="s">
+      <c r="C20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="18">
+        <v>1</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A21" s="29"/>
+      <c r="B21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="24">
-        <v>1</v>
-      </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="4"/>
-      <c r="B22" s="3" t="s">
+      <c r="C21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="18">
+        <v>1</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A22" s="29"/>
+      <c r="B22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="24">
-        <v>1</v>
-      </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" s="4"/>
-      <c r="B23" s="3" t="s">
+      <c r="C22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="18">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A23" s="29"/>
+      <c r="B23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="24">
-        <v>1</v>
-      </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="4"/>
-      <c r="B24" s="3" t="s">
+      <c r="C23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="18">
+        <v>1</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A24" s="29"/>
+      <c r="B24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="24">
-        <v>1</v>
-      </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A25" s="4"/>
-      <c r="B25" s="3" t="s">
+      <c r="C24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="18">
+        <v>1</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A25" s="29"/>
+      <c r="B25" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="24">
-        <v>1</v>
-      </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
-      <c r="B26" s="3" t="s">
+      <c r="C25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="18">
+        <v>1</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="30"/>
+      <c r="B26" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="25">
-        <v>1</v>
-      </c>
-      <c r="E26" s="26"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A27" s="2" t="s">
+      <c r="C26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="19">
+        <v>1</v>
+      </c>
+      <c r="E26" s="20"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A27" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="20">
-        <v>1</v>
-      </c>
-      <c r="E27" s="21"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22">
-        <v>1</v>
-      </c>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="23"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A28" s="4"/>
-      <c r="B28" s="3" t="s">
+      <c r="C27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="14">
+        <v>1</v>
+      </c>
+      <c r="E27" s="15"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16">
+        <v>1</v>
+      </c>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="17"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A28" s="29"/>
+      <c r="B28" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="24">
-        <v>1</v>
-      </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9">
-        <v>1</v>
-      </c>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="12"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A29" s="4"/>
-      <c r="B29" s="3" t="s">
+      <c r="C28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="18">
+        <v>1</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3">
+        <v>1</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="6"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A29" s="29"/>
+      <c r="B29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="24">
-        <v>1</v>
-      </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9">
-        <v>1</v>
-      </c>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="12"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A30" s="4"/>
-      <c r="B30" s="3" t="s">
+      <c r="C29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="18">
+        <v>1</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3">
+        <v>1</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="6"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A30" s="29"/>
+      <c r="B30" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="24">
-        <v>1</v>
-      </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9">
-        <v>1</v>
-      </c>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="12"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A31" s="4"/>
-      <c r="B31" s="3" t="s">
+      <c r="C30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="18">
+        <v>1</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3">
+        <v>1</v>
+      </c>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="6"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A31" s="29"/>
+      <c r="B31" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="24">
-        <v>1</v>
-      </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9">
-        <v>1</v>
-      </c>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="12"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A32" s="4"/>
-      <c r="B32" s="3" t="s">
+      <c r="C31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="18">
+        <v>1</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3">
+        <v>1</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="6"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A32" s="29"/>
+      <c r="B32" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="24">
-        <v>1</v>
-      </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9">
-        <v>1</v>
-      </c>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="12"/>
-    </row>
-    <row r="33" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="4"/>
-      <c r="B33" s="3" t="s">
+      <c r="C32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="18">
+        <v>1</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3">
+        <v>1</v>
+      </c>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="6"/>
+    </row>
+    <row r="33" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="29"/>
+      <c r="B33" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="25">
-        <v>1</v>
-      </c>
-      <c r="E33" s="26"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27">
-        <v>1</v>
-      </c>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="28"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A34" s="6" t="s">
+      <c r="C33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="19">
+        <v>1</v>
+      </c>
+      <c r="E33" s="20"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21">
+        <v>1</v>
+      </c>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="22"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A34" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="20">
+      <c r="C34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="14">
         <v>3</v>
       </c>
-      <c r="E34" s="21"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22">
+      <c r="E34" s="15"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16">
         <v>2</v>
       </c>
-      <c r="I34" s="22">
-        <v>1</v>
-      </c>
-      <c r="J34" s="23"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A35" s="7"/>
-      <c r="B35" s="3" t="s">
+      <c r="I34" s="16">
+        <v>1</v>
+      </c>
+      <c r="J34" s="35"/>
+      <c r="K34" s="17"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A35" s="32"/>
+      <c r="B35" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="24">
+      <c r="C35" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="18">
         <v>3</v>
       </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9">
+      <c r="E35" s="5"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3">
         <v>2</v>
       </c>
-      <c r="I35" s="9">
-        <v>1</v>
-      </c>
-      <c r="J35" s="12"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A36" s="7"/>
-      <c r="B36" s="3" t="s">
+      <c r="I35" s="3">
+        <v>1</v>
+      </c>
+      <c r="J35" s="36"/>
+      <c r="K35" s="6"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A36" s="32"/>
+      <c r="B36" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="24">
+      <c r="C36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="18">
         <v>3</v>
       </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9">
+      <c r="E36" s="5"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3">
         <v>2</v>
       </c>
-      <c r="I36" s="9">
-        <v>1</v>
-      </c>
-      <c r="J36" s="12"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A37" s="7"/>
-      <c r="B37" s="3" t="s">
+      <c r="I36" s="3">
+        <v>1</v>
+      </c>
+      <c r="J36" s="36"/>
+      <c r="K36" s="6"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A37" s="32"/>
+      <c r="B37" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="24">
+      <c r="C37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="18">
         <v>3</v>
       </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9">
+      <c r="E37" s="5"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3">
         <v>2</v>
       </c>
-      <c r="I37" s="9">
-        <v>1</v>
-      </c>
-      <c r="J37" s="12"/>
-    </row>
-    <row r="38" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="8"/>
-      <c r="B38" s="3" t="s">
+      <c r="I37" s="3">
+        <v>1</v>
+      </c>
+      <c r="J37" s="36"/>
+      <c r="K37" s="6"/>
+    </row>
+    <row r="38" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="33"/>
+      <c r="B38" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="25">
+      <c r="C38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="19">
         <v>3</v>
       </c>
-      <c r="E38" s="26"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27">
+      <c r="E38" s="20"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21">
         <v>2</v>
       </c>
-      <c r="I38" s="27">
-        <v>1</v>
-      </c>
-      <c r="J38" s="28"/>
-    </row>
-    <row r="39" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
+      <c r="I38" s="21">
+        <v>1</v>
+      </c>
+      <c r="J38" s="37"/>
+      <c r="K38" s="22"/>
+    </row>
+    <row r="39" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="29">
-        <v>1</v>
-      </c>
-      <c r="E39" s="30"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31">
-        <v>1</v>
-      </c>
-      <c r="J39" s="32"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A40" s="2" t="s">
+      <c r="C39" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="23">
+        <v>1</v>
+      </c>
+      <c r="E39" s="24"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25">
+        <v>1</v>
+      </c>
+      <c r="J39" s="38"/>
+      <c r="K39" s="26"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A40" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="20">
-        <v>1</v>
-      </c>
-      <c r="E40" s="21"/>
-      <c r="F40" s="22">
-        <v>1</v>
-      </c>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="23"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A41" s="4"/>
-      <c r="B41" s="3" t="s">
+      <c r="C40" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="14">
+        <v>1</v>
+      </c>
+      <c r="E40" s="15"/>
+      <c r="F40" s="16">
+        <v>1</v>
+      </c>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="17"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A41" s="29"/>
+      <c r="B41" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="24">
-        <v>1</v>
-      </c>
-      <c r="E41" s="11"/>
-      <c r="F41" s="9">
-        <v>1</v>
-      </c>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="12"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A42" s="4"/>
-      <c r="B42" s="3" t="s">
+      <c r="C41" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="18">
+        <v>1</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="3">
+        <v>1</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="6"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A42" s="29"/>
+      <c r="B42" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="24">
-        <v>1</v>
-      </c>
-      <c r="E42" s="11"/>
-      <c r="F42" s="9">
-        <v>1</v>
-      </c>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="12"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A43" s="4"/>
-      <c r="B43" s="3" t="s">
+      <c r="C42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="18">
+        <v>1</v>
+      </c>
+      <c r="E42" s="5"/>
+      <c r="F42" s="3">
+        <v>1</v>
+      </c>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="6"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A43" s="29"/>
+      <c r="B43" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="24">
-        <v>1</v>
-      </c>
-      <c r="E43" s="11"/>
-      <c r="F43" s="9">
-        <v>1</v>
-      </c>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="12"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A44" s="4"/>
-      <c r="B44" s="3" t="s">
+      <c r="C43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="18">
+        <v>1</v>
+      </c>
+      <c r="E43" s="5"/>
+      <c r="F43" s="3">
+        <v>1</v>
+      </c>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="6"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A44" s="29"/>
+      <c r="B44" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="24">
-        <v>1</v>
-      </c>
-      <c r="E44" s="11"/>
-      <c r="F44" s="9">
-        <v>1</v>
-      </c>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="12"/>
-    </row>
-    <row r="45" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="5"/>
-      <c r="B45" s="3" t="s">
+      <c r="C44" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="18">
+        <v>1</v>
+      </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="3">
+        <v>1</v>
+      </c>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="6"/>
+    </row>
+    <row r="45" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="30"/>
+      <c r="B45" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="25">
-        <v>1</v>
-      </c>
-      <c r="E45" s="26"/>
-      <c r="F45" s="27">
-        <v>1</v>
-      </c>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="28"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A46" s="2" t="s">
+      <c r="C45" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="19">
+        <v>1</v>
+      </c>
+      <c r="E45" s="20"/>
+      <c r="F45" s="21">
+        <v>1</v>
+      </c>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="22"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A46" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C46" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="20">
-        <v>1</v>
-      </c>
-      <c r="E46" s="21"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22">
-        <v>1</v>
-      </c>
-      <c r="J46" s="23"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A47" s="4"/>
-      <c r="B47" s="3" t="s">
+      <c r="C46" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="14">
+        <v>1</v>
+      </c>
+      <c r="E46" s="15"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="35">
+        <v>1</v>
+      </c>
+      <c r="K46" s="17"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A47" s="29"/>
+      <c r="B47" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D47" s="39"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="42">
+        <v>1</v>
+      </c>
+      <c r="K47" s="43"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A48" s="29"/>
+      <c r="B48" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48" s="39"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="41"/>
+      <c r="J48" s="42"/>
+      <c r="K48" s="43"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A49" s="29"/>
+      <c r="B49" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49" s="39"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="41"/>
+      <c r="I49" s="41"/>
+      <c r="J49" s="42">
+        <v>1</v>
+      </c>
+      <c r="K49" s="43"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A50" s="29"/>
+      <c r="B50" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="18">
+        <v>1</v>
+      </c>
+      <c r="E50" s="5"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="36">
+        <v>1</v>
+      </c>
+      <c r="K50" s="6"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A51" s="29"/>
+      <c r="B51" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" s="24">
-        <v>1</v>
-      </c>
-      <c r="E47" s="11"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9">
-        <v>1</v>
-      </c>
-      <c r="J47" s="12"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A48" s="4"/>
-      <c r="B48" s="3" t="s">
+      <c r="C51" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="18">
+        <v>1</v>
+      </c>
+      <c r="E51" s="5"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="36">
+        <v>1</v>
+      </c>
+      <c r="K51" s="6"/>
+    </row>
+    <row r="52" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="30"/>
+      <c r="B52" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C48" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" s="24">
-        <v>1</v>
-      </c>
-      <c r="E48" s="11"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9">
-        <v>1</v>
-      </c>
-      <c r="J48" s="12"/>
-    </row>
-    <row r="49" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="5"/>
-      <c r="B49" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" s="25">
-        <v>1</v>
-      </c>
-      <c r="E49" s="26"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="27">
-        <v>1</v>
-      </c>
-      <c r="J49" s="28"/>
-    </row>
-    <row r="50" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D50" s="33">
-        <f>SUM(D2:D49)</f>
+      <c r="C52" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="19">
+        <v>1</v>
+      </c>
+      <c r="E52" s="20"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="37">
+        <v>1</v>
+      </c>
+      <c r="K52" s="22"/>
+    </row>
+    <row r="53" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D53" s="27">
+        <f>SUM(D2:D52)</f>
         <v>58</v>
       </c>
-      <c r="E50" s="13">
-        <f t="shared" ref="E50:J50" si="0">SUM(E2:E49)</f>
+      <c r="E53" s="7">
+        <f t="shared" ref="E53:K53" si="0">SUM(E2:E52)</f>
         <v>9</v>
       </c>
-      <c r="F50" s="14">
+      <c r="F53" s="8">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="G50" s="14">
+      <c r="G53" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H50" s="14">
+      <c r="H53" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I50" s="14">
+      <c r="I53" s="8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="J53" s="8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="K53" s="9">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J50" s="15">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:J50"/>
+  <autoFilter ref="D1:K53"/>
   <mergeCells count="6">
-    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A46:A52"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A26"/>
     <mergeCell ref="A27:A33"/>
